--- a/data/templates/Plantilla Extension Materiales.xlsx
+++ b/data/templates/Plantilla Extension Materiales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\cdlondono\Downloads\04. Proyectos\PYTHON\Extension-Materiales\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB2E56-BD8B-4556-AC05-65FDE622B436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C871E-A22F-40D9-960E-DE15EB2721DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="423">
   <si>
     <t>Codigo</t>
   </si>
@@ -4377,7 +4377,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,39 +4414,39 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D2">
-        <v>1403</v>
-      </c>
-      <c r="E2" t="s">
-        <v>421</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1720</v>
+      </c>
+      <c r="D2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2">
+        <v>10900011</v>
       </c>
       <c r="F2">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1720</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>422</v>
       </c>
-      <c r="E3">
-        <v>10900011</v>
+      <c r="E3" t="s">
+        <v>421</v>
       </c>
       <c r="F3">
         <v>4858</v>
@@ -4468,7 +4468,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A48:A1048576 A1:A43">
+  <conditionalFormatting sqref="A48:A1048576 A4:A43 A1:A2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4477,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1668E3-DA56-4B05-8324-1B132EBAF443}">
-  <dimension ref="A1:GO13"/>
+  <dimension ref="A1:GO17"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,6 +7604,445 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:197" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16">
+        <v>7</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>23</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC16">
+        <v>6</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>11</v>
+      </c>
+      <c r="BJ16">
+        <v>20</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN16">
+        <v>2.9999999999999898E+17</v>
+      </c>
+      <c r="BU16">
+        <v>2</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>23</v>
+      </c>
+      <c r="CK16">
+        <v>6</v>
+      </c>
+      <c r="CO16">
+        <v>7</v>
+      </c>
+      <c r="CP16">
+        <v>1</v>
+      </c>
+      <c r="EA16">
+        <v>0</v>
+      </c>
+      <c r="EB16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>0</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EQ16">
+        <v>0</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
+        <v>0</v>
+      </c>
+      <c r="EU16">
+        <v>0</v>
+      </c>
+      <c r="EV16">
+        <v>0</v>
+      </c>
+      <c r="EX16">
+        <v>6006</v>
+      </c>
+      <c r="EY16">
+        <v>2</v>
+      </c>
+      <c r="EZ16" t="s">
+        <v>30</v>
+      </c>
+      <c r="FD16">
+        <v>1000</v>
+      </c>
+      <c r="FE16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FK16" t="s">
+        <v>421</v>
+      </c>
+      <c r="FQ16" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:174" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" t="s">
+        <v>13</v>
+      </c>
+      <c r="V17">
+        <v>54233</v>
+      </c>
+      <c r="W17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>1720</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17">
+        <v>841</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>23</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC17">
+        <v>6</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>11</v>
+      </c>
+      <c r="BJ17">
+        <v>17</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN17">
+        <v>2.9999999999999898E+17</v>
+      </c>
+      <c r="BU17">
+        <v>2</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>106</v>
+      </c>
+      <c r="CK17">
+        <v>6</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO17">
+        <v>7</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>27</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>3</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>29</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DQ17">
+        <v>0</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17">
+        <v>2</v>
+      </c>
+      <c r="DT17">
+        <v>0</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EN17">
+        <v>0</v>
+      </c>
+      <c r="EO17">
+        <v>0</v>
+      </c>
+      <c r="EQ17">
+        <v>0</v>
+      </c>
+      <c r="ER17">
+        <v>0</v>
+      </c>
+      <c r="ES17">
+        <v>0</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>37</v>
+      </c>
+      <c r="EU17">
+        <v>0</v>
+      </c>
+      <c r="EV17">
+        <v>0</v>
+      </c>
+      <c r="EX17">
+        <v>5002</v>
+      </c>
+      <c r="EY17">
+        <v>2</v>
+      </c>
+      <c r="EZ17" t="s">
+        <v>30</v>
+      </c>
+      <c r="FD17">
+        <v>1</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>13</v>
+      </c>
+      <c r="FH17">
+        <v>1</v>
+      </c>
+      <c r="FK17">
+        <v>10900011</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>13</v>
+      </c>
+      <c r="FR17">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="V2:Z2"/>
